--- a/public/static/excel/supplier.xlsx
+++ b/public/static/excel/supplier.xlsx
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>供应商全称</t>
   </si>
@@ -111,6 +111,27 @@
     <t>营业详细地址</t>
   </si>
   <si>
+    <t>合同主体</t>
+  </si>
+  <si>
+    <t>合并结算</t>
+  </si>
+  <si>
+    <t>结算供应商全称</t>
+  </si>
+  <si>
+    <t>账期</t>
+  </si>
+  <si>
+    <t>结算方式</t>
+  </si>
+  <si>
+    <t>结算日</t>
+  </si>
+  <si>
+    <t>对账日</t>
+  </si>
+  <si>
     <t>是否支持代收货款</t>
   </si>
   <si>
@@ -136,6 +157,27 @@
   </si>
   <si>
     <t>电话</t>
+  </si>
+  <si>
+    <t>对账员名称</t>
+  </si>
+  <si>
+    <t>对账员电话</t>
+  </si>
+  <si>
+    <t>对账员微信</t>
+  </si>
+  <si>
+    <t>对账员QQ</t>
+  </si>
+  <si>
+    <t>对账员邮箱</t>
+  </si>
+  <si>
+    <t>对账员地址</t>
+  </si>
+  <si>
+    <t>备注</t>
   </si>
 </sst>
 </file>
@@ -143,9 +185,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -181,39 +223,100 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -225,8 +328,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -234,15 +338,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -250,68 +353,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -343,43 +385,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -391,13 +541,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -409,121 +559,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -534,80 +576,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -634,6 +602,80 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -642,10 +684,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -654,137 +696,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -795,9 +837,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1148,10 +1187,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:V1"/>
+  <dimension ref="A1:AJ1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1168,18 +1207,28 @@
     <col min="10" max="10" width="12.9090909090909" style="1" customWidth="1"/>
     <col min="11" max="11" width="14.0909090909091" style="1" customWidth="1"/>
     <col min="12" max="12" width="13.2727272727273" style="1" customWidth="1"/>
-    <col min="13" max="13" width="13.9090909090909" style="1" customWidth="1"/>
-    <col min="14" max="14" width="17.2727272727273" style="1" customWidth="1"/>
-    <col min="15" max="15" width="15.7272727272727" style="1" customWidth="1"/>
-    <col min="16" max="16" width="8.63636363636364" style="1" customWidth="1"/>
-    <col min="17" max="17" width="10.3636363636364" style="1" customWidth="1"/>
-    <col min="18" max="18" width="9" style="1"/>
-    <col min="19" max="19" width="11.2727272727273" style="1" customWidth="1"/>
-    <col min="20" max="20" width="11.3636363636364" style="1" customWidth="1"/>
-    <col min="21" max="16384" width="9" style="1"/>
+    <col min="13" max="15" width="13.9090909090909" style="1" customWidth="1"/>
+    <col min="16" max="16" width="22.8181818181818" style="1" customWidth="1"/>
+    <col min="17" max="17" width="10.1818181818182" style="1" customWidth="1"/>
+    <col min="18" max="20" width="15.4545454545455" style="1" customWidth="1"/>
+    <col min="21" max="21" width="17.2727272727273" style="1" customWidth="1"/>
+    <col min="22" max="22" width="15.7272727272727" style="1" customWidth="1"/>
+    <col min="23" max="23" width="8.63636363636364" style="1" customWidth="1"/>
+    <col min="24" max="24" width="10.3636363636364" style="1" customWidth="1"/>
+    <col min="25" max="25" width="9" style="1"/>
+    <col min="26" max="26" width="11.2727272727273" style="1" customWidth="1"/>
+    <col min="27" max="27" width="11.3636363636364" style="1" customWidth="1"/>
+    <col min="28" max="29" width="9" style="1"/>
+    <col min="30" max="30" width="12.9090909090909" style="1" customWidth="1"/>
+    <col min="31" max="31" width="11.7272727272727" style="1" customWidth="1"/>
+    <col min="32" max="32" width="16.3636363636364" style="1" customWidth="1"/>
+    <col min="33" max="33" width="16.0909090909091" style="1" customWidth="1"/>
+    <col min="34" max="34" width="14.5454545454545" style="1" customWidth="1"/>
+    <col min="35" max="35" width="12.3636363636364" style="1" customWidth="1"/>
+    <col min="36" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" ht="31" customHeight="1" spans="1:36">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1219,49 +1268,104 @@
       <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="R1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="S1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="V1" s="1" t="s">
         <v>21</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="5">
+  <dataValidations count="10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N$1:N$1048576">
+      <formula1>"广州尚品物流有限公司,湖南尚智供应链管理有限公司,任易调供应链管理有限公司,广州昇启科技有限公司,佛山尚智供应链管理有限公司"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C$1:C$1048576">
       <formula1>"快递,快运,专线"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D$1:D$1048576 N$1:N$1048576 O$1:O$1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S$1:S$1048576 T$1:T$1048576">
+      <formula1>"1号,2号,3号,4号,5号,6号,7号,8号,9号,10号,11号,12号,13号,14号,15号,16号,17号,18号,19号,20号,21号,22号,23号,24号,25号,26号,27号,28号,29号,30号,31号"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D$1:D$1048576 O$1:O$1048576 U$1:U$1048576 V$1:V$1048576">
       <formula1>"是,否"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E$1:E$1048576">
-      <formula1>"圆通快递,中通快递,韵达快递,德邦物流,跨越速运,壹米滴答,安能物流,顺丰快递,百世快运,韵达快运"</formula1>
+      <formula1>"圆通快递,中通快递,韵达快递,德邦物流,跨越速运,壹米滴答,安能物流,顺丰快递,百世快运,韵达快运,中通快运,顺心捷达"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F$1:F$1048576">
       <formula1>"外部供应商,加盟供应商,自建供应商"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P$1:P$1048576">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P$1:P$1048576"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q$1:Q$1048576">
+      <formula1>"15天,30天,45天,60天,90天"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R$1:R$1048576">
+      <formula1>"月结,现付,到付,回单付,预充值"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W$1:W$1048576">
       <formula1>"启用,禁用"</formula1>
     </dataValidation>
   </dataValidations>
